--- a/biology/Zoologie/Alloteuthis_africana/Alloteuthis_africana.xlsx
+++ b/biology/Zoologie/Alloteuthis_africana/Alloteuthis_africana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alloteuthis africana est une espèce de calmars de la famille des Loliginidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’ITIS range cette espèce sous le genre Loligo sous le taxon Loligo africana[3]. Toutefois le WoRMS, qui fait référence en la matière, considère le taxon Alloteuthis africana comme valide[1] et rejette le taxon Loligo africana[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’ITIS range cette espèce sous le genre Loligo sous le taxon Loligo africana. Toutefois le WoRMS, qui fait référence en la matière, considère le taxon Alloteuthis africana comme valide et rejette le taxon Loligo africana.
 </t>
         </is>
       </c>
